--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44427.82519237834</v>
+        <v>-52943.17105102286</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33654759.71765644</v>
+        <v>33654759.71765642</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2889046.700956968</v>
+        <v>2889046.700956969</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563248</v>
+        <v>361.0520318443723</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H12" t="n">
-        <v>34.44698820166499</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.60563018141188</v>
+        <v>49.60563018141206</v>
       </c>
       <c r="T12" t="n">
         <v>126.0091317304331</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.8581596460923</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>124.6385366318165</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>52.01429422411398</v>
+        <v>335.3329239508593</v>
       </c>
       <c r="H14" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.0456433386444</v>
@@ -1666,10 +1666,10 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>126.0091317304331</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5263742585039</v>
+        <v>174.5263742585036</v>
       </c>
       <c r="V15" t="n">
         <v>197.1263427586206</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>80.60038409107435</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>245.7072260671902</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.5724976088931</v>
+        <v>288.8533886719426</v>
       </c>
     </row>
     <row r="18">
@@ -1976,7 +1976,7 @@
         <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304335</v>
       </c>
       <c r="U18" t="n">
         <v>174.5263742585036</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>137.9685787855547</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>249.3391561391356</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0456433386444</v>
+        <v>210.5192997302657</v>
       </c>
       <c r="U20" t="n">
-        <v>103.778224499268</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H21" t="n">
-        <v>34.44698820166521</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>60.48936042072961</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>85.88534796121279</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="D23" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>176.9554451830633</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T23" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>317.9541921376114</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>135.9028272103769</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6161358490523</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>164.3368820352044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>131.8310744351346</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="F26" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.7166363522986</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.6149537766826</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>178.5492022015036</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
         <v>275.6161358490523</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>117.7605938922501</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>48.85736879306067</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>100.8704073254607</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>236.5789795615679</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>265.4401554364733</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="G32" t="n">
-        <v>29.96044885662929</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>159.8085876055818</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
         <v>240.8720855447433</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>46.24807687311441</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>340.0857051438858</v>
       </c>
       <c r="F35" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>396.054118850051</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.644886895229149</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I37" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>132.1639911596551</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>8.664982774559586</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>45.46100637279444</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>199.0869581893373</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>13.51276694847814</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.6012844548731</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>368.3379045390508</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>331.936561530594</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H42" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166513</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>170.6468775146864</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8116502448522</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.5724976088932</v>
+        <v>140.62653121588</v>
       </c>
       <c r="F44" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1176691647117286</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>19.73454427709167</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1300.684037991914</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.684037991914</v>
+        <v>673.5283296874397</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2743088441117</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E11" t="n">
-        <v>455.8645796963089</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F11" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G11" t="n">
-        <v>33.45485054850598</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H11" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524262</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073331</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L11" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847203</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5062,7 +5062,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
         <v>1672.742527425299</v>
@@ -5071,22 +5071,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="X11" t="n">
-        <v>1300.684037991914</v>
+        <v>1095.938058835243</v>
       </c>
       <c r="Y11" t="n">
-        <v>1300.684037991914</v>
+        <v>1095.938058835243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C12" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G12" t="n">
-        <v>68.24978812594537</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>83.76937108752901</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K12" t="n">
-        <v>588.6118936739097</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L12" t="n">
-        <v>741.5466961549137</v>
+        <v>434.0899791224632</v>
       </c>
       <c r="M12" t="n">
-        <v>920.0143971816302</v>
+        <v>612.5576801491798</v>
       </c>
       <c r="N12" t="n">
-        <v>1103.205607207306</v>
+        <v>795.7488901748552</v>
       </c>
       <c r="O12" t="n">
-        <v>1270.789775072916</v>
+        <v>963.3330580404652</v>
       </c>
       <c r="P12" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5162,10 +5162,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.6016089020022</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="C13" t="n">
-        <v>376.0398973852271</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="D13" t="n">
-        <v>210.1619045867498</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="E13" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H13" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L13" t="n">
-        <v>592.9407211490369</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M13" t="n">
-        <v>1006.944496686798</v>
+        <v>324.1674353402283</v>
       </c>
       <c r="N13" t="n">
-        <v>1097.308365280052</v>
+        <v>738.1712108779898</v>
       </c>
       <c r="O13" t="n">
-        <v>1180.774023741877</v>
+        <v>1152.174986415751</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.542946114066</v>
+        <v>1566.178761953513</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.182735391305</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1551.673679297933</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.368542384051</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U13" t="n">
-        <v>1308.368542384051</v>
+        <v>1154.798406498805</v>
       </c>
       <c r="V13" t="n">
-        <v>1021.413034254482</v>
+        <v>867.8428983692352</v>
       </c>
       <c r="W13" t="n">
-        <v>1021.413034254482</v>
+        <v>867.8428983692352</v>
       </c>
       <c r="X13" t="n">
-        <v>776.021279587894</v>
+        <v>622.4511437026476</v>
       </c>
       <c r="Y13" t="n">
-        <v>548.6016089020022</v>
+        <v>395.0314730167559</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>783.7787279056888</v>
+        <v>372.1749757513941</v>
       </c>
       <c r="C14" t="n">
-        <v>361.3689987578859</v>
+        <v>372.1749757513941</v>
       </c>
       <c r="D14" t="n">
-        <v>361.3689987578859</v>
+        <v>372.1749757513941</v>
       </c>
       <c r="E14" t="n">
-        <v>361.3689987578859</v>
+        <v>372.1749757513941</v>
       </c>
       <c r="F14" t="n">
-        <v>361.3689987578859</v>
+        <v>372.1749757513941</v>
       </c>
       <c r="G14" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H14" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524201</v>
+        <v>83.79828774524211</v>
       </c>
       <c r="J14" t="n">
         <v>195.5292216073326</v>
@@ -5287,7 +5287,7 @@
         <v>570.7285396968687</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847203</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5305,25 +5305,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S14" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U14" t="n">
-        <v>1146.395677971862</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V14" t="n">
-        <v>783.7787279056888</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W14" t="n">
-        <v>783.7787279056888</v>
+        <v>794.584704899197</v>
       </c>
       <c r="X14" t="n">
-        <v>783.7787279056888</v>
+        <v>794.584704899197</v>
       </c>
       <c r="Y14" t="n">
-        <v>783.7787279056888</v>
+        <v>794.584704899197</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C15" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E15" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G15" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H15" t="n">
         <v>33.45485054850599</v>
@@ -5360,25 +5360,25 @@
         <v>150.3155498622651</v>
       </c>
       <c r="K15" t="n">
-        <v>264.0535687076974</v>
+        <v>564.3193254000266</v>
       </c>
       <c r="L15" t="n">
-        <v>644.5435644264568</v>
+        <v>717.2541278810307</v>
       </c>
       <c r="M15" t="n">
-        <v>823.0112654531733</v>
+        <v>895.7218289077473</v>
       </c>
       <c r="N15" t="n">
-        <v>1237.015040990935</v>
+        <v>1078.913038933423</v>
       </c>
       <c r="O15" t="n">
-        <v>1404.599208856545</v>
+        <v>1246.497206799033</v>
       </c>
       <c r="P15" t="n">
-        <v>1539.100278049918</v>
+        <v>1380.998275992406</v>
       </c>
       <c r="Q15" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R15" t="n">
         <v>1672.742527425299</v>
@@ -5387,7 +5387,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T15" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U15" t="n">
         <v>1319.064612101715</v>
@@ -5399,10 +5399,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.8339844586827</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C16" t="n">
-        <v>404.4194550737591</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D16" t="n">
-        <v>238.5414622752818</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E16" t="n">
-        <v>238.5414622752818</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F16" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G16" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H16" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I16" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>355.1410140564473</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>769.1447895942089</v>
+        <v>790.2903535690692</v>
       </c>
       <c r="M16" t="n">
-        <v>861.7096435212255</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N16" t="n">
-        <v>952.0735121144794</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O16" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U16" t="n">
-        <v>1245.600917940732</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V16" t="n">
-        <v>958.6454098111619</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W16" t="n">
-        <v>958.6454098111619</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="X16" t="n">
-        <v>713.2536551445744</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y16" t="n">
-        <v>485.8339844586827</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C17" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D17" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E17" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F17" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H17" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5536,31 +5536,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="W17" t="n">
-        <v>1672.742527425299</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="X17" t="n">
-        <v>1253.60006400461</v>
+        <v>1000.655072796148</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2743088441118</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="18">
@@ -5576,49 +5576,49 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F18" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H18" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>57.70569792707142</v>
+        <v>57.70569792707143</v>
       </c>
       <c r="J18" t="n">
-        <v>124.2518767018075</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K18" t="n">
-        <v>281.1551766414587</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L18" t="n">
-        <v>434.0899791224628</v>
+        <v>715.4830229944563</v>
       </c>
       <c r="M18" t="n">
-        <v>612.5576801491793</v>
+        <v>893.950724021173</v>
       </c>
       <c r="N18" t="n">
-        <v>795.7488901748548</v>
+        <v>1077.141934046849</v>
       </c>
       <c r="O18" t="n">
-        <v>963.3330580404647</v>
+        <v>1244.726101912459</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.834127233838</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q18" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R18" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S18" t="n">
         <v>1622.635830272358</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.8170513419956</v>
+        <v>852.9050322832435</v>
       </c>
       <c r="C19" t="n">
-        <v>172.8170513419956</v>
+        <v>680.3433207664684</v>
       </c>
       <c r="D19" t="n">
-        <v>172.8170513419956</v>
+        <v>514.4653279679911</v>
       </c>
       <c r="E19" t="n">
-        <v>172.8170513419956</v>
+        <v>344.7073242187284</v>
       </c>
       <c r="F19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H19" t="n">
         <v>33.45485054850599</v>
@@ -5673,52 +5673,52 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>216.5126308803687</v>
+        <v>355.1410140564471</v>
       </c>
       <c r="L19" t="n">
-        <v>304.3051044129577</v>
+        <v>769.1447895942088</v>
       </c>
       <c r="M19" t="n">
-        <v>718.3088799507193</v>
+        <v>861.7096435212254</v>
       </c>
       <c r="N19" t="n">
-        <v>1132.312655488481</v>
+        <v>952.0735121144792</v>
       </c>
       <c r="O19" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R19" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T19" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.037253290152</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="V19" t="n">
-        <v>864.0817451605828</v>
+        <v>1272.143321688122</v>
       </c>
       <c r="W19" t="n">
-        <v>592.0553407468744</v>
+        <v>1272.143321688122</v>
       </c>
       <c r="X19" t="n">
-        <v>592.0553407468744</v>
+        <v>1272.143321688122</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.6356700609827</v>
+        <v>1044.723651002231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1300.684037991915</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C20" t="n">
-        <v>878.2743088441118</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D20" t="n">
-        <v>455.8645796963089</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E20" t="n">
-        <v>33.45485054850599</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F20" t="n">
-        <v>33.45485054850599</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G20" t="n">
         <v>33.45485054850599</v>
@@ -5749,19 +5749,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5770,34 +5770,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P20" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T20" t="n">
-        <v>1405.510527385115</v>
+        <v>1460.096770122001</v>
       </c>
       <c r="U20" t="n">
-        <v>1300.684037991915</v>
+        <v>1200.981920708748</v>
       </c>
       <c r="V20" t="n">
-        <v>1300.684037991915</v>
+        <v>838.3649706425747</v>
       </c>
       <c r="W20" t="n">
-        <v>1300.684037991915</v>
+        <v>433.509516053608</v>
       </c>
       <c r="X20" t="n">
-        <v>1300.684037991915</v>
+        <v>433.509516053608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1300.684037991915</v>
+        <v>433.509516053608</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>152.9162207615568</v>
       </c>
       <c r="G21" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
@@ -5834,25 +5834,25 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>588.6118936739097</v>
+        <v>588.6118936739098</v>
       </c>
       <c r="L21" t="n">
-        <v>741.5466961549138</v>
+        <v>741.5466961549139</v>
       </c>
       <c r="M21" t="n">
-        <v>920.0143971816303</v>
+        <v>920.0143971816306</v>
       </c>
       <c r="N21" t="n">
         <v>1103.205607207306</v>
       </c>
       <c r="O21" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P21" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q21" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R21" t="n">
         <v>1672.742527425299</v>
@@ -5861,7 +5861,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T21" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U21" t="n">
         <v>1319.064612101715</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.4498774351036</v>
+        <v>923.4462243780406</v>
       </c>
       <c r="C22" t="n">
-        <v>615.4498774351036</v>
+        <v>750.8845128612655</v>
       </c>
       <c r="D22" t="n">
-        <v>615.4498774351036</v>
+        <v>585.0065200627882</v>
       </c>
       <c r="E22" t="n">
-        <v>445.6918736858408</v>
+        <v>415.2485163135256</v>
       </c>
       <c r="F22" t="n">
-        <v>268.984819647597</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="G22" t="n">
-        <v>103.9960426433032</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H22" t="n">
         <v>103.9960426433032</v>
@@ -5910,25 +5910,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015359</v>
+        <v>75.2037845501536</v>
       </c>
       <c r="K22" t="n">
-        <v>143.8101078806224</v>
+        <v>143.8101078806225</v>
       </c>
       <c r="L22" t="n">
-        <v>557.8138834183841</v>
+        <v>231.6025814132116</v>
       </c>
       <c r="M22" t="n">
-        <v>650.3787373454009</v>
+        <v>324.1674353402284</v>
       </c>
       <c r="N22" t="n">
-        <v>740.7426059386546</v>
+        <v>621.5353950385435</v>
       </c>
       <c r="O22" t="n">
-        <v>1154.746381476416</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P22" t="n">
-        <v>1568.750157014178</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q22" t="n">
         <v>1667.182735391305</v>
@@ -5940,22 +5940,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T22" t="n">
-        <v>1611.642163363956</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U22" t="n">
-        <v>1611.642163363956</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V22" t="n">
-        <v>1324.686655234387</v>
+        <v>1342.68451378292</v>
       </c>
       <c r="W22" t="n">
-        <v>1052.660250820678</v>
+        <v>1342.68451378292</v>
       </c>
       <c r="X22" t="n">
-        <v>807.2684961540908</v>
+        <v>1342.68451378292</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.2684961540908</v>
+        <v>1115.264843097028</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>878.2743088441118</v>
+        <v>634.6074536185953</v>
       </c>
       <c r="C23" t="n">
-        <v>455.8645796963089</v>
+        <v>212.1977244707922</v>
       </c>
       <c r="D23" t="n">
-        <v>33.45485054850599</v>
+        <v>212.1977244707922</v>
       </c>
       <c r="E23" t="n">
-        <v>33.45485054850599</v>
+        <v>212.1977244707922</v>
       </c>
       <c r="F23" t="n">
-        <v>33.45485054850599</v>
+        <v>212.1977244707922</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850599</v>
+        <v>212.1977244707922</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524192</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073326</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K23" t="n">
         <v>362.9849282099029</v>
@@ -5998,7 +5998,7 @@
         <v>570.7285396968687</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847203</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6007,34 +6007,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P23" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q23" t="n">
         <v>1590.048899840628</v>
       </c>
       <c r="R23" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="T23" t="n">
-        <v>1458.555008901416</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U23" t="n">
-        <v>1199.440159488164</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V23" t="n">
-        <v>878.2743088441118</v>
+        <v>1042.893577318942</v>
       </c>
       <c r="W23" t="n">
-        <v>878.2743088441118</v>
+        <v>1042.893577318942</v>
       </c>
       <c r="X23" t="n">
-        <v>878.2743088441118</v>
+        <v>1042.893577318942</v>
       </c>
       <c r="Y23" t="n">
-        <v>878.2743088441118</v>
+        <v>634.6074536185953</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C24" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D24" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E24" t="n">
-        <v>236.3000591453949</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F24" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G24" t="n">
         <v>68.24978812594554</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I24" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752905</v>
       </c>
       <c r="J24" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284775</v>
       </c>
       <c r="K24" t="n">
-        <v>237.9898955472398</v>
+        <v>588.6118936739098</v>
       </c>
       <c r="L24" t="n">
-        <v>651.9936710850013</v>
+        <v>741.5466961549139</v>
       </c>
       <c r="M24" t="n">
-        <v>830.461372111718</v>
+        <v>920.0143971816306</v>
       </c>
       <c r="N24" t="n">
-        <v>1013.652582137393</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O24" t="n">
-        <v>1181.236750003004</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P24" t="n">
-        <v>1421.927499955579</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6110,10 +6110,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X24" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.45485054850599</v>
+        <v>170.7304335892908</v>
       </c>
       <c r="C25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="D25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="E25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="F25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J25" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K25" t="n">
-        <v>378.8579730919724</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>466.6504466245615</v>
+        <v>769.1447895942091</v>
       </c>
       <c r="M25" t="n">
-        <v>880.6542221623231</v>
+        <v>861.7096435212258</v>
       </c>
       <c r="N25" t="n">
-        <v>1294.657997700085</v>
+        <v>952.0735121144796</v>
       </c>
       <c r="O25" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R25" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.437390511417</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.037253290152</v>
+        <v>1394.342390204035</v>
       </c>
       <c r="V25" t="n">
-        <v>864.0817451605828</v>
+        <v>1107.386882074466</v>
       </c>
       <c r="W25" t="n">
-        <v>698.0848946199724</v>
+        <v>835.3604776607572</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6931399533848</v>
+        <v>589.9687229941696</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.2734692674931</v>
+        <v>362.5490523082779</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>878.2743088441118</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="C26" t="n">
-        <v>878.2743088441118</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="D26" t="n">
-        <v>878.2743088441118</v>
+        <v>1131.293702275322</v>
       </c>
       <c r="E26" t="n">
-        <v>455.8645796963089</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F26" t="n">
-        <v>33.45485054850599</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G26" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H26" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524192</v>
       </c>
       <c r="J26" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6244,34 +6244,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P26" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q26" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V26" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="W26" t="n">
-        <v>1267.887072836333</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="X26" t="n">
-        <v>878.2743088441118</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="Y26" t="n">
-        <v>878.2743088441118</v>
+        <v>1264.456403724953</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E27" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F27" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G27" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H27" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I27" t="n">
-        <v>57.70569792707142</v>
+        <v>57.70569792707145</v>
       </c>
       <c r="J27" t="n">
-        <v>124.2518767018075</v>
+        <v>448.8102016680199</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9898955472398</v>
+        <v>562.5482205134523</v>
       </c>
       <c r="L27" t="n">
-        <v>390.9246980282439</v>
+        <v>715.4830229944564</v>
       </c>
       <c r="M27" t="n">
-        <v>569.3923990549604</v>
+        <v>893.9507240211731</v>
       </c>
       <c r="N27" t="n">
-        <v>795.7488901748548</v>
+        <v>1077.141934046849</v>
       </c>
       <c r="O27" t="n">
-        <v>963.3330580404647</v>
+        <v>1244.726101912459</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.834127233838</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="C28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="D28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="E28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="F28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015359</v>
+        <v>75.20378455015361</v>
       </c>
       <c r="K28" t="n">
-        <v>143.8101078806224</v>
+        <v>143.8101078806225</v>
       </c>
       <c r="L28" t="n">
-        <v>231.6025814132115</v>
+        <v>231.6025814132116</v>
       </c>
       <c r="M28" t="n">
-        <v>324.1674353402283</v>
+        <v>324.1674353402284</v>
       </c>
       <c r="N28" t="n">
-        <v>738.1712108779898</v>
+        <v>738.1712108779901</v>
       </c>
       <c r="O28" t="n">
         <v>1035.539170576305</v>
       </c>
       <c r="P28" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q28" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.001055161996</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T28" t="n">
-        <v>1343.648325665528</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="U28" t="n">
-        <v>1065.248188444263</v>
+        <v>1002.29578102685</v>
       </c>
       <c r="V28" t="n">
-        <v>778.2926803146937</v>
+        <v>715.3402728972806</v>
       </c>
       <c r="W28" t="n">
-        <v>506.2662759009852</v>
+        <v>443.3138684835721</v>
       </c>
       <c r="X28" t="n">
-        <v>260.8745212343977</v>
+        <v>443.3138684835721</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.45485054850599</v>
+        <v>215.8941977976804</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>905.2701227701591</v>
+        <v>574.8146745369658</v>
       </c>
       <c r="C29" t="n">
-        <v>905.2701227701591</v>
+        <v>152.4049453891627</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2701227701591</v>
+        <v>33.454850548506</v>
       </c>
       <c r="E29" t="n">
-        <v>905.2701227701591</v>
+        <v>33.454850548506</v>
       </c>
       <c r="F29" t="n">
-        <v>482.8603936223562</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G29" t="n">
-        <v>82.80572811725415</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6481,34 +6481,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P29" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q29" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R29" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S29" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="T29" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U29" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V29" t="n">
-        <v>1310.125577359126</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="W29" t="n">
-        <v>905.2701227701591</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="X29" t="n">
-        <v>905.2701227701591</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="Y29" t="n">
-        <v>905.2701227701591</v>
+        <v>997.2244036847688</v>
       </c>
     </row>
     <row r="30">
@@ -6524,43 +6524,43 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E30" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F30" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G30" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I30" t="n">
-        <v>57.70569792707142</v>
+        <v>57.70569792707145</v>
       </c>
       <c r="J30" t="n">
-        <v>124.2518767018075</v>
+        <v>448.8102016680199</v>
       </c>
       <c r="K30" t="n">
-        <v>237.9898955472398</v>
+        <v>562.5482205134523</v>
       </c>
       <c r="L30" t="n">
-        <v>390.9246980282439</v>
+        <v>715.4830229944564</v>
       </c>
       <c r="M30" t="n">
-        <v>612.5576801491793</v>
+        <v>893.9507240211731</v>
       </c>
       <c r="N30" t="n">
-        <v>795.7488901748548</v>
+        <v>1077.141934046849</v>
       </c>
       <c r="O30" t="n">
-        <v>963.3330580404647</v>
+        <v>1244.726101912459</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.834127233838</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>643.5418589417693</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="C31" t="n">
-        <v>470.9801474249942</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="D31" t="n">
-        <v>305.1021546265169</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3441508772542</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J31" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015361</v>
       </c>
       <c r="K31" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806225</v>
       </c>
       <c r="L31" t="n">
-        <v>606.799447382605</v>
+        <v>557.8138834183843</v>
       </c>
       <c r="M31" t="n">
-        <v>699.3643013096217</v>
+        <v>650.3787373454012</v>
       </c>
       <c r="N31" t="n">
-        <v>789.7281699028755</v>
+        <v>789.7281699028757</v>
       </c>
       <c r="O31" t="n">
         <v>1203.731945440637</v>
@@ -6642,31 +6642,31 @@
         <v>1617.735720978399</v>
       </c>
       <c r="Q31" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S31" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T31" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U31" t="n">
-        <v>1394.342390204034</v>
+        <v>1433.773861201494</v>
       </c>
       <c r="V31" t="n">
-        <v>1107.386882074465</v>
+        <v>1146.818353071925</v>
       </c>
       <c r="W31" t="n">
-        <v>835.3604776607565</v>
+        <v>874.7919486582161</v>
       </c>
       <c r="X31" t="n">
-        <v>835.3604776607565</v>
+        <v>629.4001939916286</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3604776607565</v>
+        <v>401.9805233057369</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63.71793020166689</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="C32" t="n">
-        <v>63.71793020166689</v>
+        <v>723.98594882406</v>
       </c>
       <c r="D32" t="n">
-        <v>63.71793020166689</v>
+        <v>455.8645796963091</v>
       </c>
       <c r="E32" t="n">
-        <v>63.71793020166689</v>
+        <v>455.8645796963091</v>
       </c>
       <c r="F32" t="n">
-        <v>63.71793020166689</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J32" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099025</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6718,34 +6718,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P32" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q32" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R32" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="T32" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U32" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="V32" t="n">
-        <v>1310.125577359126</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="W32" t="n">
-        <v>905.2701227701591</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="X32" t="n">
-        <v>486.1276593494698</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="Y32" t="n">
-        <v>486.1276593494698</v>
+        <v>1146.395677971863</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D33" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E33" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F33" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G33" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I33" t="n">
-        <v>57.70569792707142</v>
+        <v>57.70569792707145</v>
       </c>
       <c r="J33" t="n">
-        <v>124.2518767018075</v>
+        <v>448.8102016680199</v>
       </c>
       <c r="K33" t="n">
-        <v>281.1551766414587</v>
+        <v>562.5482205134523</v>
       </c>
       <c r="L33" t="n">
-        <v>434.0899791224628</v>
+        <v>715.4830229944564</v>
       </c>
       <c r="M33" t="n">
-        <v>612.5576801491793</v>
+        <v>893.9507240211731</v>
       </c>
       <c r="N33" t="n">
-        <v>795.7488901748548</v>
+        <v>1077.141934046849</v>
       </c>
       <c r="O33" t="n">
-        <v>963.3330580404647</v>
+        <v>1244.726101912459</v>
       </c>
       <c r="P33" t="n">
-        <v>1097.834127233838</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.8379027716</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>364.6356700609827</v>
+        <v>668.6250437325185</v>
       </c>
       <c r="C34" t="n">
-        <v>364.6356700609827</v>
+        <v>668.6250437325185</v>
       </c>
       <c r="D34" t="n">
-        <v>364.6356700609827</v>
+        <v>502.7470509340412</v>
       </c>
       <c r="E34" t="n">
-        <v>194.87766631172</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="F34" t="n">
-        <v>33.45485054850599</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J34" t="n">
-        <v>75.20378455015359</v>
+        <v>75.20378455015361</v>
       </c>
       <c r="K34" t="n">
-        <v>143.8101078806224</v>
+        <v>143.8101078806225</v>
       </c>
       <c r="L34" t="n">
-        <v>557.8138834183841</v>
+        <v>231.6025814132116</v>
       </c>
       <c r="M34" t="n">
-        <v>650.3787373454009</v>
+        <v>324.1674353402284</v>
       </c>
       <c r="N34" t="n">
-        <v>1064.382512883162</v>
+        <v>738.1712108779901</v>
       </c>
       <c r="O34" t="n">
-        <v>1478.386288420924</v>
+        <v>1152.174986415752</v>
       </c>
       <c r="P34" t="n">
-        <v>1617.735720978399</v>
+        <v>1566.178761953514</v>
       </c>
       <c r="Q34" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S34" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.037253290152</v>
+        <v>1002.29578102685</v>
       </c>
       <c r="V34" t="n">
-        <v>864.0817451605828</v>
+        <v>715.3402728972806</v>
       </c>
       <c r="W34" t="n">
-        <v>592.0553407468744</v>
+        <v>668.6250437325185</v>
       </c>
       <c r="X34" t="n">
-        <v>592.0553407468744</v>
+        <v>668.6250437325185</v>
       </c>
       <c r="Y34" t="n">
-        <v>364.6356700609827</v>
+        <v>668.6250437325185</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>855.9192452014108</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="C35" t="n">
-        <v>855.9192452014108</v>
+        <v>777.0304303403614</v>
       </c>
       <c r="D35" t="n">
-        <v>855.9192452014108</v>
+        <v>777.0304303403614</v>
       </c>
       <c r="E35" t="n">
-        <v>855.9192452014108</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F35" t="n">
         <v>433.509516053608</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6955,34 +6955,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P35" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q35" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R35" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S35" t="n">
-        <v>1669.060823490724</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T35" t="n">
-        <v>1669.060823490724</v>
+        <v>1458.555008901417</v>
       </c>
       <c r="U35" t="n">
-        <v>1669.060823490724</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="V35" t="n">
-        <v>1669.060823490724</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.205368901758</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="X35" t="n">
-        <v>1264.205368901758</v>
+        <v>1199.440159488164</v>
       </c>
       <c r="Y35" t="n">
-        <v>855.9192452014108</v>
+        <v>1199.440159488164</v>
       </c>
     </row>
     <row r="36">
@@ -6998,46 +6998,46 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D36" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E36" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F36" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G36" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I36" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707145</v>
       </c>
       <c r="J36" t="n">
-        <v>284.5899358903662</v>
+        <v>124.2518767018075</v>
       </c>
       <c r="K36" t="n">
-        <v>398.3279547357985</v>
+        <v>237.9898955472399</v>
       </c>
       <c r="L36" t="n">
-        <v>551.2627572168026</v>
+        <v>434.0899791224624</v>
       </c>
       <c r="M36" t="n">
-        <v>729.7304582435193</v>
+        <v>612.557680149179</v>
       </c>
       <c r="N36" t="n">
-        <v>912.9216682691947</v>
+        <v>795.7488901748544</v>
       </c>
       <c r="O36" t="n">
-        <v>1080.505836134805</v>
+        <v>963.3330580404645</v>
       </c>
       <c r="P36" t="n">
-        <v>1215.006905328178</v>
+        <v>1097.834127233838</v>
       </c>
       <c r="Q36" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R36" t="n">
         <v>1672.742527425299</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>911.7279473440908</v>
+        <v>757.5682315795633</v>
       </c>
       <c r="C37" t="n">
-        <v>739.1662358273157</v>
+        <v>585.0065200627882</v>
       </c>
       <c r="D37" t="n">
-        <v>573.2882430288385</v>
+        <v>585.0065200627882</v>
       </c>
       <c r="E37" t="n">
-        <v>403.5302392795757</v>
+        <v>415.2485163135256</v>
       </c>
       <c r="F37" t="n">
-        <v>403.5302392795757</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="G37" t="n">
         <v>238.5414622752818</v>
@@ -7092,55 +7092,55 @@
         <v>103.9960426433032</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J37" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L37" t="n">
-        <v>557.813883418384</v>
+        <v>769.1447895942091</v>
       </c>
       <c r="M37" t="n">
-        <v>650.3787373454007</v>
+        <v>861.7096435212258</v>
       </c>
       <c r="N37" t="n">
-        <v>740.7426059386545</v>
+        <v>952.0735121144796</v>
       </c>
       <c r="O37" t="n">
         <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
-        <v>1449.542946114066</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q37" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R37" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.001055161996</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T37" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="U37" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248115</v>
       </c>
       <c r="V37" t="n">
-        <v>1237.045547032427</v>
+        <v>993.7404101185455</v>
       </c>
       <c r="W37" t="n">
-        <v>1103.546566063078</v>
+        <v>993.7404101185455</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.546566063078</v>
+        <v>984.987902265455</v>
       </c>
       <c r="Y37" t="n">
-        <v>1103.546566063078</v>
+        <v>757.5682315795633</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>479.4297245109761</v>
+        <v>433.509516053608</v>
       </c>
       <c r="C38" t="n">
-        <v>479.4297245109761</v>
+        <v>433.509516053608</v>
       </c>
       <c r="D38" t="n">
         <v>433.509516053608</v>
@@ -7165,25 +7165,25 @@
         <v>433.509516053608</v>
       </c>
       <c r="G38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H38" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7192,34 +7192,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P38" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q38" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R38" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S38" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="T38" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U38" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V38" t="n">
-        <v>1310.125577359126</v>
+        <v>1042.893577318942</v>
       </c>
       <c r="W38" t="n">
-        <v>1310.125577359126</v>
+        <v>841.7956397539547</v>
       </c>
       <c r="X38" t="n">
-        <v>1310.125577359126</v>
+        <v>841.7956397539547</v>
       </c>
       <c r="Y38" t="n">
-        <v>901.839453658779</v>
+        <v>433.509516053608</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E39" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F39" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G39" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H39" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I39" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707145</v>
       </c>
       <c r="J39" t="n">
-        <v>150.3155498622651</v>
+        <v>448.8102016680199</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0535687076974</v>
+        <v>562.5482205134523</v>
       </c>
       <c r="L39" t="n">
-        <v>416.9883711887014</v>
+        <v>715.4830229944564</v>
       </c>
       <c r="M39" t="n">
-        <v>595.4560722154181</v>
+        <v>893.9507240211731</v>
       </c>
       <c r="N39" t="n">
-        <v>795.7488901748548</v>
+        <v>1077.141934046849</v>
       </c>
       <c r="O39" t="n">
-        <v>963.3330580404647</v>
+        <v>1244.726101912459</v>
       </c>
       <c r="P39" t="n">
-        <v>1097.834127233838</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q39" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R39" t="n">
         <v>1672.742527425299</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>583.0574916219703</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C40" t="n">
-        <v>569.4082320780529</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D40" t="n">
-        <v>403.5302392795757</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E40" t="n">
-        <v>403.5302392795757</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F40" t="n">
-        <v>403.5302392795757</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G40" t="n">
-        <v>238.5414622752818</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H40" t="n">
-        <v>103.9960426433032</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I40" t="n">
-        <v>33.45485054850598</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J40" t="n">
-        <v>75.20378455015359</v>
+        <v>75.20378455015361</v>
       </c>
       <c r="K40" t="n">
-        <v>143.8101078806224</v>
+        <v>143.8101078806225</v>
       </c>
       <c r="L40" t="n">
-        <v>557.813883418384</v>
+        <v>231.6025814132116</v>
       </c>
       <c r="M40" t="n">
-        <v>971.8176589561455</v>
+        <v>645.6063569509733</v>
       </c>
       <c r="N40" t="n">
-        <v>1385.821434493907</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O40" t="n">
-        <v>1546.316431026242</v>
+        <v>1473.613908026497</v>
       </c>
       <c r="P40" t="n">
-        <v>1617.735720978398</v>
+        <v>1545.033197978653</v>
       </c>
       <c r="Q40" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R40" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.001055161996</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T40" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U40" t="n">
-        <v>1002.295781026849</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="V40" t="n">
-        <v>1002.295781026849</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="W40" t="n">
-        <v>1002.295781026849</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="X40" t="n">
-        <v>1002.295781026849</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y40" t="n">
-        <v>774.8761103409574</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1672.742527425299</v>
+        <v>791.1540357878183</v>
       </c>
       <c r="C41" t="n">
-        <v>1300.684037991915</v>
+        <v>791.1540357878183</v>
       </c>
       <c r="D41" t="n">
-        <v>878.2743088441118</v>
+        <v>791.1540357878183</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8645796963089</v>
+        <v>791.1540357878183</v>
       </c>
       <c r="F41" t="n">
-        <v>33.45485054850599</v>
+        <v>368.7443066400151</v>
       </c>
       <c r="G41" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="H41" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524178</v>
+        <v>83.79828774524255</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073323</v>
+        <v>195.5292216073332</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099035</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968693</v>
       </c>
       <c r="M41" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847211</v>
       </c>
       <c r="N41" t="n">
-        <v>1036.7784573317</v>
+        <v>1036.778457331701</v>
       </c>
       <c r="O41" t="n">
-        <v>1258.583260144776</v>
+        <v>1258.583260144777</v>
       </c>
       <c r="P41" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q41" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840629</v>
       </c>
       <c r="R41" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425301</v>
       </c>
       <c r="S41" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425301</v>
       </c>
       <c r="T41" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901417</v>
       </c>
       <c r="U41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488165</v>
       </c>
       <c r="V41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488165</v>
       </c>
       <c r="W41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488165</v>
       </c>
       <c r="X41" t="n">
-        <v>1672.742527425299</v>
+        <v>1199.440159488165</v>
       </c>
       <c r="Y41" t="n">
-        <v>1672.742527425299</v>
+        <v>791.1540357878183</v>
       </c>
     </row>
     <row r="42">
@@ -7472,46 +7472,46 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E42" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F42" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G42" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H42" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="I42" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752905</v>
       </c>
       <c r="J42" t="n">
-        <v>474.8738748284774</v>
+        <v>474.8738748284775</v>
       </c>
       <c r="K42" t="n">
-        <v>605.2485493631987</v>
+        <v>588.6118936739099</v>
       </c>
       <c r="L42" t="n">
-        <v>758.1833518442028</v>
+        <v>741.546696154914</v>
       </c>
       <c r="M42" t="n">
-        <v>936.6510528709192</v>
+        <v>920.0143971816307</v>
       </c>
       <c r="N42" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O42" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P42" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q42" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R42" t="n">
         <v>1672.742527425299</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>547.7123931078187</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="C43" t="n">
-        <v>375.1506815910436</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="D43" t="n">
-        <v>375.1506815910436</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="E43" t="n">
-        <v>375.1506815910436</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="F43" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="I43" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850601</v>
       </c>
       <c r="J43" t="n">
-        <v>161.7834697148434</v>
+        <v>147.9063075498996</v>
       </c>
       <c r="K43" t="n">
-        <v>505.1482476164479</v>
+        <v>216.5126308803685</v>
       </c>
       <c r="L43" t="n">
-        <v>769.1447895942089</v>
+        <v>304.3051044129576</v>
       </c>
       <c r="M43" t="n">
-        <v>861.7096435212255</v>
+        <v>718.3088799507194</v>
       </c>
       <c r="N43" t="n">
-        <v>952.0735121144794</v>
+        <v>1132.312655488481</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026243</v>
       </c>
       <c r="P43" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.7357209784</v>
       </c>
       <c r="Q43" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391307</v>
       </c>
       <c r="R43" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425301</v>
       </c>
       <c r="S43" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.742527425301</v>
       </c>
       <c r="T43" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U43" t="n">
-        <v>1394.342390204034</v>
+        <v>1257.06680716325</v>
       </c>
       <c r="V43" t="n">
-        <v>1394.342390204034</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W43" t="n">
-        <v>1122.315985790326</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X43" t="n">
-        <v>966.9506825126975</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y43" t="n">
-        <v>739.5310118268058</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>831.1903348568071</v>
+        <v>997.9662464295727</v>
       </c>
       <c r="C44" t="n">
-        <v>831.1903348568071</v>
+        <v>997.9662464295727</v>
       </c>
       <c r="D44" t="n">
-        <v>831.1903348568071</v>
+        <v>997.9662464295727</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8645796963089</v>
+        <v>855.9192452014111</v>
       </c>
       <c r="F44" t="n">
-        <v>33.45485054850599</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524239</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073326</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968691</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847207</v>
       </c>
       <c r="N44" t="n">
-        <v>1036.7784573317</v>
+        <v>1036.778457331701</v>
       </c>
       <c r="O44" t="n">
-        <v>1258.583260144776</v>
+        <v>1258.583260144777</v>
       </c>
       <c r="P44" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q44" t="n">
         <v>1590.048899840628</v>
       </c>
       <c r="R44" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S44" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="T44" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908999</v>
       </c>
       <c r="U44" t="n">
-        <v>1672.742527425299</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V44" t="n">
-        <v>1672.742527425299</v>
+        <v>997.9662464295727</v>
       </c>
       <c r="W44" t="n">
-        <v>1672.742527425299</v>
+        <v>997.9662464295727</v>
       </c>
       <c r="X44" t="n">
-        <v>1253.60006400461</v>
+        <v>997.9662464295727</v>
       </c>
       <c r="Y44" t="n">
-        <v>1253.60006400461</v>
+        <v>997.9662464295727</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453949</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615566</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I45" t="n">
-        <v>57.70569792707142</v>
+        <v>57.70569792707145</v>
       </c>
       <c r="J45" t="n">
-        <v>124.2518767018075</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K45" t="n">
-        <v>237.9898955472398</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L45" t="n">
-        <v>390.9246980282439</v>
+        <v>715.4830229944563</v>
       </c>
       <c r="M45" t="n">
-        <v>569.3923990549604</v>
+        <v>893.950724021173</v>
       </c>
       <c r="N45" t="n">
-        <v>752.5836090806357</v>
+        <v>1077.141934046849</v>
       </c>
       <c r="O45" t="n">
-        <v>1125.096502512157</v>
+        <v>1244.726101912459</v>
       </c>
       <c r="P45" t="n">
-        <v>1539.100278049918</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q45" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
         <v>1672.742527425299</v>
@@ -7769,10 +7769,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>199.3328433469833</v>
+        <v>552.4816198527876</v>
       </c>
       <c r="C46" t="n">
-        <v>199.3328433469833</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="D46" t="n">
-        <v>33.45485054850599</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E46" t="n">
-        <v>33.45485054850599</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.454850548506</v>
       </c>
       <c r="J46" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>304.3051044129577</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M46" t="n">
-        <v>718.3088799507193</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N46" t="n">
-        <v>1132.312655488481</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O46" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P46" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q46" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R46" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S46" t="n">
-        <v>1672.623669683166</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T46" t="n">
-        <v>1429.318532769284</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U46" t="n">
-        <v>1150.918395548019</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="V46" t="n">
-        <v>863.9628874184498</v>
+        <v>1237.045547032428</v>
       </c>
       <c r="W46" t="n">
-        <v>863.9628874184498</v>
+        <v>1217.111663924254</v>
       </c>
       <c r="X46" t="n">
-        <v>618.5711327518623</v>
+        <v>971.7199092576666</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.1514620659705</v>
+        <v>744.3002385717748</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>17.2743514482442</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.80470271645413</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P13" t="n">
-        <v>199.3430630505379</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>52.07773638877347</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>303.2987441336659</v>
       </c>
       <c r="L15" t="n">
-        <v>229.8537305431872</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>233.1440055677638</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>41.34265046785094</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>213.4655617937624</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>329.5063656617904</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9242,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>43.60129403456455</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.3670431532728</v>
+        <v>43.13164530277459</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>73.4368919189356</v>
+        <v>126.0113343546816</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>333.8768859352888</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>135.1610442258877</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>209.0950415202639</v>
       </c>
       <c r="O22" t="n">
-        <v>333.876885935289</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349549</v>
+        <v>346.0449349349547</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.48036764062704</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>263.7060333906642</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>107.2623037971734</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>16.80470271645322</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>149.96785863299</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>177.983907520376</v>
       </c>
       <c r="M25" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>43.6012940345646</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.3670431532728</v>
+        <v>43.1316453027739</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10044,10 +10044,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>326.9089969136442</v>
+        <v>326.9089969136444</v>
       </c>
       <c r="O28" t="n">
-        <v>216.0629305419087</v>
+        <v>216.0629305419086</v>
       </c>
       <c r="P28" t="n">
         <v>346.0449349349549</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>43.6012940345646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.3670431532728</v>
+        <v>43.1316453027739</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>13.99871336724038</v>
+        <v>329.5063656617907</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>49.48036764062704</v>
       </c>
       <c r="O31" t="n">
-        <v>333.8768859352888</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P31" t="n">
         <v>346.0449349349549</v>
@@ -10427,10 +10427,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>43.60129403456455</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.3670431532728</v>
+        <v>43.1316453027739</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>326.9089969136443</v>
+        <v>326.9089969136444</v>
       </c>
       <c r="O34" t="n">
-        <v>333.8768859352888</v>
+        <v>333.8768859352892</v>
       </c>
       <c r="P34" t="n">
-        <v>68.61630566193776</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>52.07773638877325</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>135.6306929576779</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>43.60129403456392</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.3670431532728</v>
+        <v>327.367043153273</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>329.5063656617904</v>
+        <v>177.983907520376</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>213.465561793762</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>346.0449349349549</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>17.27435144824369</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.3670431532728</v>
+        <v>161.4879868122082</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>324.6857794047927</v>
+        <v>324.6857794047929</v>
       </c>
       <c r="N40" t="n">
         <v>326.9089969136444</v>
       </c>
       <c r="O40" t="n">
-        <v>77.80741219243373</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>73.43689191893532</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>16.80470271645345</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>135.1610442258873</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>73.4368919189353</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>177.9839075203756</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>324.6857794047929</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>326.9089969136445</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>333.8768859352892</v>
       </c>
       <c r="P43" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>206.9987126928396</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>282.3259660044323</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>43.1316453027739</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>73.4368919189356</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>333.8768859352888</v>
+        <v>177.9839075203759</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097511</v>
+        <v>70.49865513292764</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696296</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559533</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>46.61313424743156</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.3388892342509</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>27.39589789457752</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>150.9775992172358</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>344.039824625937</v>
+        <v>60.72119489919174</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>90.23571031053297</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>23.59891430238122</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,16 +23740,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.5237009191198</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.63076485444998</v>
+        <v>115.3498737914005</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>36.97140471230665</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>34.74679690913828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.526343608378625</v>
       </c>
       <c r="U20" t="n">
-        <v>152.7454764198518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>180.3827251240137</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>198.200605087061</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>15.57541623208607</v>
+        <v>15.5754162320859</v>
       </c>
       <c r="D23" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24223,7 +24223,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>95.66526732010877</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
-        <v>41.03658842790031</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>34.93326719123039</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -24384,7 +24384,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I25" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>104.969258334367</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>290.2055003449241</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>11.25136553696291</v>
+        <v>11.25136553696274</v>
       </c>
       <c r="F26" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113841</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T26" t="n">
         <v>212.0456433386444</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>29.23440243418378</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>9.28547875511461</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24621,7 +24621,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>62.32288334323965</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733669</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>15.5754162320859</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>313.7900930850498</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>223.7633437101114</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>74.0695761724006</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.3388892342509</v>
@@ -24858,7 +24858,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>39.03715628748441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>15.5754162320859</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>166.1105315408266</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559305</v>
       </c>
       <c r="G32" t="n">
-        <v>366.0936699934217</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
         <v>272.6207125031721</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25080,22 +25080,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.1313958922795</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>223.058063496457</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>15.5754162320859</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>89.35129224940198</v>
       </c>
       <c r="F35" t="n">
-        <v>5.403123438559533</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>48.86914980590926</v>
+        <v>52.5140367011384</v>
       </c>
       <c r="T35" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6161358490523</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>137.1421492099163</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>234.2728543453621</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.850942923733896</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>386.0896806045055</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.5237009191198</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>201.7199418537397</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>157.3233274531292</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7048559146982</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>65.42314354936008</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>5.403123438559476</v>
+        <v>5.403123438559192</v>
       </c>
       <c r="G41" t="n">
-        <v>396.054118850051</v>
+        <v>64.11755731945698</v>
       </c>
       <c r="H41" t="n">
         <v>272.6207125031721</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113839</v>
       </c>
       <c r="T41" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -25797,16 +25797,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>104.9692583343659</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>89.12618687506941</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25873,13 +25873,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>57.86449978439458</v>
+        <v>288.8104661774077</v>
       </c>
       <c r="F44" t="n">
-        <v>5.403123438559476</v>
+        <v>5.403123438559305</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>272.6207125031721</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.3388892342509</v>
@@ -26043,7 +26043,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.1363883759581</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>249.5715960924797</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332953.4739414904</v>
+        <v>332953.4739414905</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332953.4739414904</v>
+        <v>332953.4739414905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>332953.4739414905</v>
+        <v>332953.4739414906</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332953.4739414905</v>
+        <v>332953.4739414906</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332953.4739414904</v>
+        <v>332953.4739414905</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332953.4739414904</v>
+        <v>332953.4739414906</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332953.4739414905</v>
+        <v>332953.4739414907</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332953.4739414905</v>
+        <v>332953.4739414906</v>
       </c>
     </row>
   </sheetData>
@@ -26352,7 +26352,7 @@
         <v>103464.9542517201</v>
       </c>
       <c r="O2" t="n">
-        <v>103464.9542517201</v>
+        <v>103464.9542517202</v>
       </c>
       <c r="P2" t="n">
         <v>103464.9542517201</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.752983759</v>
+        <v>390603.7529837591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26435,16 +26435,16 @@
         <v>10748.89393158315</v>
       </c>
       <c r="H4" t="n">
-        <v>10748.89393158315</v>
+        <v>10748.89393158314</v>
       </c>
       <c r="I4" t="n">
-        <v>10748.89393158315</v>
+        <v>10748.89393158314</v>
       </c>
       <c r="J4" t="n">
         <v>10748.89393158314</v>
       </c>
       <c r="K4" t="n">
-        <v>10748.89393158315</v>
+        <v>10748.89393158314</v>
       </c>
       <c r="L4" t="n">
         <v>10748.89393158314</v>
@@ -26456,7 +26456,7 @@
         <v>10748.89393158314</v>
       </c>
       <c r="O4" t="n">
-        <v>10748.89393158315</v>
+        <v>10748.89393158314</v>
       </c>
       <c r="P4" t="n">
         <v>10748.89393158315</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="F5" t="n">
         <v>32636.50261996421</v>
@@ -26490,28 +26490,28 @@
         <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="J5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="N5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996423</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-330524.1952835862</v>
+        <v>-331255.946205361</v>
       </c>
       <c r="F6" t="n">
-        <v>60079.55770017274</v>
+        <v>59347.80677839802</v>
       </c>
       <c r="G6" t="n">
-        <v>60079.55770017275</v>
+        <v>59347.80677839798</v>
       </c>
       <c r="H6" t="n">
-        <v>60079.55770017273</v>
+        <v>59347.80677839804</v>
       </c>
       <c r="I6" t="n">
-        <v>60079.55770017277</v>
+        <v>59347.80677839803</v>
       </c>
       <c r="J6" t="n">
-        <v>60079.55770017275</v>
+        <v>59347.80677839804</v>
       </c>
       <c r="K6" t="n">
-        <v>60079.55770017272</v>
+        <v>59347.80677839803</v>
       </c>
       <c r="L6" t="n">
-        <v>60079.55770017278</v>
+        <v>59347.80677839804</v>
       </c>
       <c r="M6" t="n">
-        <v>-44133.97450095083</v>
+        <v>-44865.72542272555</v>
       </c>
       <c r="N6" t="n">
-        <v>60079.55770017275</v>
+        <v>59347.806778398</v>
       </c>
       <c r="O6" t="n">
-        <v>60079.55770017274</v>
+        <v>59347.80677839805</v>
       </c>
       <c r="P6" t="n">
-        <v>60079.55770017276</v>
+        <v>59347.80677839801</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>330.7713854632872</v>
@@ -26755,28 +26755,28 @@
         <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="I3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="J3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="K3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="L3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632873</v>
       </c>
       <c r="P3" t="n">
         <v>330.7713854632872</v>
@@ -26804,34 +26804,34 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="H4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="I4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="J4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="K4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351106</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,31 +31767,31 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
       </c>
       <c r="P11" t="n">
-        <v>191.2174419853367</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219381</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047392</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229194</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284512</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M12" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N12" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379899</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305196</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319145</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T12" t="n">
-        <v>2.867725502271327</v>
+        <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782366</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5964729901796979</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H13" t="n">
-        <v>5.303187130870409</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I13" t="n">
-        <v>17.93756955922219</v>
+        <v>17.9375695592222</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570464</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542307</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453438</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268056</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103588</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692136998</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R13" t="n">
-        <v>26.81959463117077</v>
+        <v>26.81959463117078</v>
       </c>
       <c r="S13" t="n">
         <v>10.39489747431346</v>
       </c>
       <c r="T13" t="n">
-        <v>2.548566412585981</v>
+        <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0325348903734381</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H17" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L17" t="n">
         <v>209.8420318050159</v>
@@ -32250,7 +32250,7 @@
         <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S17" t="n">
         <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J18" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32332,10 +32332,10 @@
         <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305199</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
         <v>44.17358238319147</v>
@@ -32344,10 +32344,10 @@
         <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H19" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K19" t="n">
         <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R19" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T19" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U19" t="n">
         <v>0.03253489037343812</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H20" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
         <v>209.8420318050159</v>
@@ -32484,25 +32484,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J21" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L21" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M21" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O21" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T21" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H22" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K22" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R22" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T22" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U22" t="n">
         <v>0.03253489037343812</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H23" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K23" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L23" t="n">
         <v>209.8420318050159</v>
@@ -32721,25 +32721,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I24" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L24" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M24" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N24" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O24" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P24" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T24" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H25" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J25" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K25" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R25" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T25" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U25" t="n">
         <v>0.03253489037343812</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H26" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L26" t="n">
         <v>209.8420318050159</v>
@@ -32958,25 +32958,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P26" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I27" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J27" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K27" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L27" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M27" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N27" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O27" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P27" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T27" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H28" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K28" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R28" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T28" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U28" t="n">
         <v>0.03253489037343812</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H29" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J29" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K29" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L29" t="n">
         <v>209.8420318050159</v>
@@ -33195,25 +33195,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P29" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I30" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J30" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K30" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M30" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N30" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O30" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P30" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T30" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H31" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K31" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R31" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S31" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T31" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U31" t="n">
         <v>0.03253489037343812</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H32" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I32" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K32" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L32" t="n">
         <v>209.8420318050159</v>
@@ -33432,25 +33432,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q32" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R32" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S32" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T32" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U32" t="n">
         <v>0.1063787370334189</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H33" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I33" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J33" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K33" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L33" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M33" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N33" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O33" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P33" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R33" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S33" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T33" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H34" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I34" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J34" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K34" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P34" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R34" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S34" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T34" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U34" t="n">
         <v>0.03253489037343812</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H35" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L35" t="n">
         <v>209.8420318050159</v>
@@ -33669,25 +33669,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I36" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J36" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K36" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L36" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M36" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N36" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O36" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P36" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T36" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H37" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K37" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R37" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S37" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T37" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U37" t="n">
         <v>0.03253489037343812</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H38" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351108</v>
+        <v>51.2645782435111</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K38" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L38" t="n">
         <v>209.8420318050159</v>
@@ -33906,25 +33906,25 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219387</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047396</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229198</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284516</v>
       </c>
       <c r="I39" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K39" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L39" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M39" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N39" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O39" t="n">
         <v>169.27693723799</v>
       </c>
       <c r="P39" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305203</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319148</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T39" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796983</v>
       </c>
       <c r="H40" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J40" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K40" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453443</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103594</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495638</v>
       </c>
       <c r="R40" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S40" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T40" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U40" t="n">
         <v>0.03253489037343812</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H41" t="n">
-        <v>13.61814050804377</v>
+        <v>13.61814050804378</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351111</v>
       </c>
       <c r="J41" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K41" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050159</v>
+        <v>209.842031805016</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P41" t="n">
-        <v>191.2174419853368</v>
+        <v>191.2174419853369</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852203</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219388</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686296</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047397</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229199</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284518</v>
       </c>
       <c r="I42" t="n">
-        <v>24.49580543289438</v>
+        <v>24.4958054328944</v>
       </c>
       <c r="J42" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872334</v>
       </c>
       <c r="K42" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L42" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M42" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774916</v>
       </c>
       <c r="N42" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O42" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P42" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305204</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319149</v>
       </c>
       <c r="S42" t="n">
-        <v>13.21525299468887</v>
+        <v>13.21525299468888</v>
       </c>
       <c r="T42" t="n">
-        <v>2.867725502271328</v>
+        <v>2.86772550227133</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.0468072715278237</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796985</v>
       </c>
       <c r="H43" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870413</v>
       </c>
       <c r="I43" t="n">
-        <v>17.9375695592222</v>
+        <v>17.93756955922221</v>
       </c>
       <c r="J43" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K43" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542313</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453445</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153216</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268064</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103595</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137004</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495639</v>
       </c>
       <c r="R43" t="n">
-        <v>26.81959463117078</v>
+        <v>26.8195946311708</v>
       </c>
       <c r="S43" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T43" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585984</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H44" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J44" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L44" t="n">
         <v>209.8420318050159</v>
@@ -34383,7 +34383,7 @@
         <v>237.2677999464442</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
         <v>191.2174419853368</v>
@@ -34392,13 +34392,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S44" t="n">
         <v>30.30131837686295</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U44" t="n">
         <v>0.1063787370334189</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I45" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J45" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
@@ -34465,10 +34465,10 @@
         <v>169.27693723799</v>
       </c>
       <c r="P45" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305199</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
         <v>44.17358238319147</v>
@@ -34477,10 +34477,10 @@
         <v>13.21525299468887</v>
       </c>
       <c r="T45" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H46" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I46" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K46" t="n">
         <v>69.2993164954231</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R46" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S46" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T46" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U46" t="n">
         <v>0.03253489037343812</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437966</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -35415,22 +35415,22 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N11" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
         <v>83.52891675219371</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L12" t="n">
-        <v>154.4795984656606</v>
+        <v>171.7539499139049</v>
       </c>
       <c r="M12" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N12" t="n">
-        <v>185.0416262885609</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6232914195061</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8331089915196</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453436</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N13" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N13" t="n">
-        <v>91.27663494268052</v>
-      </c>
       <c r="O13" t="n">
-        <v>84.30874592103578</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P13" t="n">
-        <v>271.4837599719078</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871101</v>
+        <v>102.0242155937299</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488937</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139918</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
@@ -35728,16 +35728,16 @@
         <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L15" t="n">
-        <v>384.3333290088479</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N15" t="n">
-        <v>418.1856318563248</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
         <v>169.2769372379901</v>
@@ -35746,10 +35746,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.818588703052</v>
+        <v>132.1612391709029</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>282.7648782891855</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
+        <v>288.0223292450721</v>
+      </c>
+      <c r="M16" t="n">
         <v>418.1856318563248</v>
-      </c>
-      <c r="M16" t="n">
-        <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P16" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q16" t="n">
         <v>219.8381709871101</v>
@@ -35883,19 +35883,19 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667435</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J18" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>158.4881817572235</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L18" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M18" t="n">
         <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O18" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>418.1856318563248</v>
+        <v>133.9502340058266</v>
       </c>
       <c r="R18" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>142.7362084143587</v>
+        <v>195.3106508501047</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M19" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O19" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136991</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667435</v>
@@ -36144,7 +36144,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>186.081639954444</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.818588703052</v>
+        <v>225.9796329289397</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542313</v>
       </c>
       <c r="L22" t="n">
-        <v>418.1856318563249</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268063</v>
+        <v>300.3716764629445</v>
       </c>
       <c r="O22" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P22" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.42684684558344</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K23" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L23" t="n">
         <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667435</v>
@@ -36381,7 +36381,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.49580543289438</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J24" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837864</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L24" t="n">
-        <v>418.1856318563248</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M24" t="n">
         <v>180.2704050774915</v>
@@ -36454,13 +36454,13 @@
         <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
-        <v>243.1219696490659</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195052</v>
       </c>
       <c r="R24" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,28 +36518,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K25" t="n">
-        <v>219.2671751284131</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453442</v>
+        <v>266.6631737149104</v>
       </c>
       <c r="M25" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153198</v>
       </c>
       <c r="N25" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136991</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q25" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L26" t="n">
         <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667435</v>
@@ -36618,7 +36618,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J27" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>114.8868877226589</v>
+        <v>114.8868877226591</v>
       </c>
       <c r="L27" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N27" t="n">
-        <v>228.6429203231256</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>418.1856318563248</v>
+        <v>133.9502340058259</v>
       </c>
       <c r="R27" t="n">
         <v>162.5299238926257</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L28" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N28" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="O28" t="n">
-        <v>300.3716764629446</v>
+        <v>300.3716764629445</v>
       </c>
       <c r="P28" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q28" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J29" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K29" t="n">
         <v>169.1471783864347</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667435</v>
@@ -36855,7 +36855,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J30" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>114.8868877226589</v>
+        <v>114.8868877226591</v>
       </c>
       <c r="L30" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M30" t="n">
-        <v>223.871699112056</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N30" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>418.1856318563248</v>
+        <v>133.9502340058259</v>
       </c>
       <c r="R30" t="n">
         <v>162.5299238926257</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L31" t="n">
-        <v>102.6779795617748</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153221</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268063</v>
+        <v>140.7570025833077</v>
       </c>
       <c r="O31" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="P31" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q31" t="n">
         <v>49.9464792049564</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K32" t="n">
-        <v>169.1471783864345</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L32" t="n">
-        <v>209.8420318050161</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N32" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J33" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>158.4881817572235</v>
+        <v>114.8868877226591</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37162,13 +37162,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O33" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P33" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>418.1856318563248</v>
+        <v>133.9502340058259</v>
       </c>
       <c r="R33" t="n">
         <v>162.5299238926257</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K34" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L34" t="n">
-        <v>418.1856318563249</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N34" t="n">
-        <v>418.1856318563249</v>
+        <v>418.185631856325</v>
       </c>
       <c r="O34" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="P34" t="n">
-        <v>140.7570025833077</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.9464792049564</v>
+        <v>102.0242155937297</v>
       </c>
       <c r="R34" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L35" t="n">
         <v>209.8420318050159</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667435</v>
@@ -37329,7 +37329,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.8227480192152</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J36" t="n">
-        <v>202.8490553564012</v>
+        <v>67.21836239872333</v>
       </c>
       <c r="K36" t="n">
-        <v>114.8868877226589</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L36" t="n">
-        <v>154.4795984656607</v>
+        <v>198.0808925002247</v>
       </c>
       <c r="M36" t="n">
         <v>180.2704050774915</v>
@@ -37399,16 +37399,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O36" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P36" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570466</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>418.1856318563248</v>
+        <v>266.6631737149104</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153209</v>
+        <v>93.49985245153198</v>
       </c>
       <c r="N37" t="n">
         <v>91.27663494268063</v>
       </c>
       <c r="O37" t="n">
-        <v>297.7743077147979</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q37" t="n">
         <v>219.8381709871103</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437969</v>
+        <v>50.8519567643797</v>
       </c>
       <c r="J38" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K38" t="n">
         <v>169.1471783864347</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667435</v>
@@ -37566,7 +37566,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219416</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>50.8227480192152</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J39" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>114.8868877226589</v>
+        <v>114.8868877226591</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
@@ -37633,19 +37633,19 @@
         <v>180.2704050774915</v>
       </c>
       <c r="N39" t="n">
-        <v>202.3159777368047</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O39" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P39" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>418.1856318563248</v>
+        <v>252.3065755152602</v>
       </c>
       <c r="R39" t="n">
-        <v>162.5299238926257</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.17064040570466</v>
+        <v>42.17064040570467</v>
       </c>
       <c r="K40" t="n">
-        <v>69.29931649542308</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L40" t="n">
-        <v>418.1856318563248</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M40" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="N40" t="n">
-        <v>418.1856318563249</v>
+        <v>418.185631856325</v>
       </c>
       <c r="O40" t="n">
-        <v>162.1161581134697</v>
+        <v>418.185631856325</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136991</v>
+        <v>72.14069692137014</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.9464792049564</v>
+        <v>123.3833711238917</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488958</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437971</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536269</v>
       </c>
       <c r="K41" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N41" t="n">
         <v>237.2677999464443</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J42" t="n">
-        <v>395.0550542837863</v>
+        <v>395.0550542837864</v>
       </c>
       <c r="K42" t="n">
-        <v>131.6915904391124</v>
+        <v>114.886887722659</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N42" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O42" t="n">
         <v>169.2769372379901</v>
@@ -37879,10 +37879,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.818588703052</v>
+        <v>225.9796329289393</v>
       </c>
       <c r="R42" t="n">
-        <v>162.5299238926257</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>129.6248678447853</v>
+        <v>115.60753232464</v>
       </c>
       <c r="K43" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542314</v>
       </c>
       <c r="L43" t="n">
-        <v>266.66317371491</v>
+        <v>88.67926619453445</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268063</v>
+        <v>418.1856318563251</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563252</v>
       </c>
       <c r="P43" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692137014</v>
       </c>
       <c r="Q43" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488962</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L44" t="n">
         <v>209.8420318050159</v>
@@ -38040,7 +38040,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J45" t="n">
-        <v>67.2183623987233</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656608</v>
       </c>
       <c r="M45" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N45" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O45" t="n">
-        <v>376.2756499308296</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P45" t="n">
-        <v>418.1856318563248</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.818588703052</v>
+        <v>133.9502340058259</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>162.11615811347</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M46" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O46" t="n">
-        <v>418.1856318563248</v>
+        <v>262.2926534414117</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692136991</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
